--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532586</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>184.1503857182574</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1415,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.88143347497289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1467,10 +1469,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>50.59139885737866</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>162.4417619616646</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>109.6145161562757</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2093,61 +2095,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>82.58247054669643</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>67.21245520955652</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>50.46697834767995</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.7343308190104</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>29.12436745988397</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>78.02683817426093</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>102.4672844986161</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,61 +3040,61 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.4580463775426</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>109.1417793750722</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>95.23425580603926</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>131.4086176371787</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,11 +3751,11 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>164.4530035161876</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>190.5178817243302</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>51.47096795343333</v>
+        <v>102.9270600461948</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>82.32787816303323</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>778.0466648861338</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4659,37 +4661,37 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C11" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D11" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E11" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F11" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5063,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>900.5405560409666</v>
+        <v>536.8878951967741</v>
       </c>
       <c r="C12" t="n">
-        <v>726.0875267598396</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5154,16 +5156,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>912.9547324223749</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>912.9547324223749</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>705.1032322168421</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>705.1032322168421</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5236,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.57944215788615</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5546,19 +5548,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>752.1658925723343</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>752.1658925723343</v>
       </c>
       <c r="V18" t="n">
-        <v>327.2640844659515</v>
+        <v>752.1658925723343</v>
       </c>
       <c r="W18" t="n">
-        <v>83.81530782185143</v>
+        <v>508.7171159282343</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>300.8656157227014</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>562.4161926976942</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C21" t="n">
-        <v>387.9631634165672</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D21" t="n">
-        <v>387.9631634165672</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E21" t="n">
-        <v>387.9631634165672</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>241.4286054434522</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>102.6977800260677</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5844,10 +5846,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>896.1657866120943</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="X21" t="n">
-        <v>562.4161926976942</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="Y21" t="n">
-        <v>562.4161926976942</v>
+        <v>486.2188932059065</v>
       </c>
     </row>
     <row r="22">
@@ -5932,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>891.5982354914338</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.1808909421027</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>718.1808909421027</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C27" t="n">
-        <v>311.0032413536665</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D27" t="n">
-        <v>162.0688316924152</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E27" t="n">
-        <v>162.0688316924152</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>162.0688316924152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>162.0688316924152</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>48.69969609999451</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.3335861704772</v>
+        <v>417.752636919763</v>
       </c>
       <c r="C30" t="n">
-        <v>257.3335861704772</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D30" t="n">
-        <v>257.3335861704772</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E30" t="n">
-        <v>98.09613116502175</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>98.09613116502175</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>425.5489231905453</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>425.5489231905453</v>
+        <v>585.967973939831</v>
       </c>
       <c r="X30" t="n">
-        <v>425.5489231905453</v>
+        <v>585.967973939831</v>
       </c>
       <c r="Y30" t="n">
-        <v>425.5489231905453</v>
+        <v>585.967973939831</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>327.2640844659515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>178.3296748047002</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
         <v>304.2053859195205</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>853.8129339196541</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>651.6263392784201</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>423.4027210148092</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659515</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659515</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659515</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
         <v>109.5807722530562</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7056,10 +7058,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7129,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>641.7054013000538</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
         <v>486.8488635328713</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
         <v>829.5248650203655</v>
@@ -7348,34 +7350,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>961.308225475175</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7499,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6327430815143</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C45" t="n">
-        <v>292.6418663608746</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D45" t="n">
-        <v>292.6418663608746</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E45" t="n">
-        <v>133.4044113554191</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11145,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>67.54459744266225</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>142.81920059726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22923,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22951,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22963,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>194.4189411335972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23355,10 +23357,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>182.2091882920466</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>4.091421688202729</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>27.26179070270005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23826,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>90.55021253854589</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.65297368980004</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>104.4707158942813</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>200.8786745601566</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>28.42350333363274</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>60.27226539153111</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,10 +24581,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>31.13252716541155</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>59.3166789889497</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>149.2276986623035</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,16 +24964,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1870340778583284</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>62.54139172876557</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>20.33988403799381</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>52.2108097585995</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25369,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25445,10 +25447,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>26.23646281822224</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>24.98494807699683</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25694,7 +25696,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.255495472128104</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>15.25510347914729</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>121.2375310348824</v>
+        <v>69.78143894212091</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879945</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8547.111069342403</v>
+      </c>
+      <c r="C4" t="n">
         <v>8547.111069342402</v>
       </c>
-      <c r="C4" t="n">
-        <v>8547.111069342403</v>
-      </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26445,7 +26447,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585247</v>
+        <v>-37901.40784585243</v>
       </c>
       <c r="C6" t="n">
+        <v>42868.02368569532</v>
+      </c>
+      <c r="D6" t="n">
         <v>42868.02368569533</v>
       </c>
-      <c r="D6" t="n">
-        <v>42868.02368569531</v>
-      </c>
       <c r="E6" t="n">
-        <v>76495.62368569533</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="F6" t="n">
+        <v>76495.62368569535</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76495.62368569538</v>
+      </c>
+      <c r="H6" t="n">
         <v>76495.62368569532</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.6810865891</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76495.62368569536</v>
+      </c>
+      <c r="N6" t="n">
         <v>76495.62368569529</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="P6" t="n">
         <v>76495.62368569529</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13435.68108658907</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76495.62368569532</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35264,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37865,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532586</v>
+        <v>337290.5109663217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955724</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>152.3630098313629</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>184.1503857182574</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>51.72215467797748</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>224.0120249334811</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -1429,7 +1429,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>115.0114486120605</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>50.59139885737866</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1545,37 +1545,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.4417619616646</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,70 +1849,70 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>109.6145161562757</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>77.62142133546929</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>67.21245520955652</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.7343308190104</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2484,61 +2484,61 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,64 +2554,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>102.4672844986161</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>109.1417793750722</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,52 +3192,52 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>178.8685620569061</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3587,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>131.4086176371787</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>58.39471844666277</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>190.5178817243302</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>102.9270600461948</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C2" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C2" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,19 +4351,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
@@ -4372,10 +4372,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y2" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W3" t="n">
-        <v>778.0466648861338</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X3" t="n">
-        <v>570.195164680601</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>911.8125548258105</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>700.6811714053606</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="10">
@@ -4986,19 +4986,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>536.8878951967741</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>847.8839750944135</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V12" t="n">
-        <v>912.9547324223749</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W12" t="n">
-        <v>912.9547324223749</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X12" t="n">
-        <v>705.1032322168421</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y12" t="n">
-        <v>705.1032322168421</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5223,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5363,46 +5363,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>183.363730950278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y15" t="n">
-        <v>183.363730950278</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5475,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D17" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>752.1658925723343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>752.1658925723343</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>752.1658925723343</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>508.7171159282343</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>300.8656157227014</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>300.8656157227014</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,10 +5703,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.0035561858384</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0035561858384</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>896.1657866120943</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>693.9791919708604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>693.9791919708604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>693.9791919708604</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>693.9791919708604</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>693.9791919708604</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>486.2188932059065</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>489.9572726784918</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>315.5042433973647</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>891.5982354914338</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>718.1808909421027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>718.1808909421027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>489.9572726784918</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>489.9572726784918</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>489.9572726784918</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>489.9572726784918</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.9572726784918</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>862.8876260635219</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6411,19 +6411,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C29" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>266.0282188019862</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>266.0282188019862</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.752636919763</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>417.752636919763</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>268.8182272585117</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>585.967973939831</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>585.967973939831</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>585.967973939831</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6651,7 +6651,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6679,10 +6679,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6721,13 +6721,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
@@ -6736,16 +6736,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>853.8129339196541</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>651.6263392784201</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>423.4027210148092</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>188.2506127830665</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>188.2506127830665</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>188.2506127830665</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.3871559026832</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>816.3871559026832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>667.4527462414319</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7028,10 +7028,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="37">
@@ -7131,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>641.7054013000538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,7 +7259,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>486.8488635328713</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G41" t="n">
         <v>31.35113235729608</v>
@@ -7438,25 +7438,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>743.5980286395683</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>396.0109115480204</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>188.2506127830665</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7687,13 +7687,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>657.9038335500135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7842,16 +7842,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>73.57837224961193</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>67.54459744266225</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22804,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>98.14696326317221</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>142.81920059726</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22965,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.929357147493732</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>56.6717224917773</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>182.2091882920466</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.091421688202729</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>69.51815185167958</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,22 +23785,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23828,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>90.55021253854589</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24050,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>95.08707765284645</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>104.4707158942813</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.42350333363274</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>126.6730335290854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24578,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.0374214579384</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>149.2276986623035</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24891,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.54139172876557</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.33988403799381</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25298,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>26.90442314657142</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25475,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>26.23646281822224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>15.25510347914729</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>69.78143894212091</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125029</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="F2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879942</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879945</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.40351879943</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879936</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585243</v>
+        <v>-50119.41846589289</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569538</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565482</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.6810865891</v>
+        <v>1217.67046654859</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569536</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565482</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663217</v>
+        <v>429292.3595494202</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -661,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>152.3630098313629</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>46.57312742782308</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>89.98138655216532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0120249334811</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>115.0114486120605</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>102.3382270926889</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>77.92691371295918</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,46 +1785,46 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2092,58 +2092,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>77.62142133546929</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>182.7004482653351</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X36" t="n">
-        <v>178.8685620569061</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3799,10 +3799,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.9809112256319</v>
       </c>
     </row>
     <row r="43">
@@ -3906,55 +3906,55 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>132.9689388813999</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,49 +4149,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>636.7377808286153</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>401.5856725968725</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>401.5856725968725</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>193.7341723913397</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.7341723913397</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>179.6938417610405</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>644.9432478003937</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>401.4944711562937</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>401.4944711562937</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="7">
@@ -4743,16 +4743,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4840,16 +4840,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y8" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>636.61285340344</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>401.4607451716973</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4992,13 +4992,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,13 +5129,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>847.8839750944135</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>645.6973804531794</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>645.6973804531794</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>645.6973804531794</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>402.2486038090794</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X12" t="n">
-        <v>402.2486038090794</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.4883050441255</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="13">
@@ -5223,7 +5223,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5314,16 +5314,16 @@
         <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5363,13 +5363,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N15" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N15" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X15" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>728.6161971483371</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V17" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W17" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,13 +5773,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
@@ -5788,16 +5788,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552.3930418464681</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C21" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="22">
@@ -5895,7 +5895,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>274.0360370837871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V26" t="n">
-        <v>274.0360370837871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.58726043968704</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6411,10 +6411,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6496,19 +6496,19 @@
         <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C30" t="n">
         <v>20.03527576299844</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>577.2332497330343</v>
+      </c>
+      <c r="C32" t="n">
+        <v>577.2332497330343</v>
+      </c>
+      <c r="D32" t="n">
+        <v>577.2332497330343</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="33">
@@ -6785,34 +6785,34 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
         <v>678.3417187247995</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>343.8760884571613</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7025,10 +7025,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>533.6469426057913</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>352.9716273967953</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>241.7186438601369</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,22 +7280,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7356,7 +7356,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7839,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9011,16 +9011,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10445,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>275.3266899823874</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>22.5314303951711</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>73.57837224961193</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22801,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>90.77038973538755</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>142.81920059726</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,10 +23111,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>1.929357147493732</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>95.88461450214733</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>56.6717224917773</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23463,10 +23463,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>69.51815185167958</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>259.3668408089274</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23861,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>95.08707765284645</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24217,19 +24217,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>33.8209705003793</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,25 +24448,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24736,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>117.8794279635378</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>311.5863622709866</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>50.10013888409014</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>334.968030499315</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25213,7 +25213,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X36" t="n">
-        <v>26.90442314657142</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>106.5525690386005</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25596,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>324.9137997770587</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,22 +25709,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>5.424356414370408</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>81.7017845516725</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>14.47612668323882</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>99696.40351879942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589289</v>
+        <v>-39123.20890785646</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565484</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565484</v>
+        <v>41646.22262369126</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369132</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565488</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565482</v>
+        <v>75273.8226236913</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.67046654859</v>
+        <v>12213.88002458504</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.8226236913</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565482</v>
+        <v>75273.82262369127</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37165,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37393,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
